--- a/data/pca/factorExposure/factorExposure_2016-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01198065432765175</v>
+        <v>-0.01334131146185163</v>
       </c>
       <c r="C2">
-        <v>-0.05274327008487981</v>
+        <v>0.04224487420286743</v>
       </c>
       <c r="D2">
-        <v>0.03721464339529929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06241429718923057</v>
+      </c>
+      <c r="E2">
+        <v>-0.06987661118692608</v>
+      </c>
+      <c r="F2">
+        <v>0.0666820336548103</v>
+      </c>
+      <c r="G2">
+        <v>0.03755353178235563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05035770532721928</v>
+        <v>-0.02934888947855827</v>
       </c>
       <c r="C3">
-        <v>-0.10722493023857</v>
+        <v>0.07913846005033819</v>
       </c>
       <c r="D3">
-        <v>0.09899127122634177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08908710052750574</v>
+      </c>
+      <c r="E3">
+        <v>-0.07092435521595331</v>
+      </c>
+      <c r="F3">
+        <v>-0.006168287204844032</v>
+      </c>
+      <c r="G3">
+        <v>-0.03948754000564939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06563048430732311</v>
+        <v>-0.05806863404878396</v>
       </c>
       <c r="C4">
-        <v>-0.06052651856427244</v>
+        <v>0.06657147607106471</v>
       </c>
       <c r="D4">
-        <v>0.03032760615188045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05974140051851293</v>
+      </c>
+      <c r="E4">
+        <v>-0.06950744199164877</v>
+      </c>
+      <c r="F4">
+        <v>0.07810836921949391</v>
+      </c>
+      <c r="G4">
+        <v>-0.03968209061472863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03927437086131877</v>
+        <v>-0.03567220088062691</v>
       </c>
       <c r="C6">
-        <v>-0.03928211852742926</v>
+        <v>0.03215786904842569</v>
       </c>
       <c r="D6">
-        <v>0.0341409670015792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06405770322169886</v>
+      </c>
+      <c r="E6">
+        <v>-0.07213972349064025</v>
+      </c>
+      <c r="F6">
+        <v>0.05948631821771592</v>
+      </c>
+      <c r="G6">
+        <v>-0.02418912032550992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02169422467317691</v>
+        <v>-0.01857048196148219</v>
       </c>
       <c r="C7">
-        <v>-0.04425571758716005</v>
+        <v>0.03859936121196626</v>
       </c>
       <c r="D7">
-        <v>-0.004244596062524071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03710648755315987</v>
+      </c>
+      <c r="E7">
+        <v>-0.04752439124897088</v>
+      </c>
+      <c r="F7">
+        <v>0.09994689767572719</v>
+      </c>
+      <c r="G7">
+        <v>-0.008743234154832807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003083793131425174</v>
+        <v>-0.003436734946060822</v>
       </c>
       <c r="C8">
-        <v>-0.03080560384899016</v>
+        <v>0.02905970938641218</v>
       </c>
       <c r="D8">
-        <v>0.02618406176686745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03111196485609406</v>
+      </c>
+      <c r="E8">
+        <v>-0.05093962268775229</v>
+      </c>
+      <c r="F8">
+        <v>0.03664841544335632</v>
+      </c>
+      <c r="G8">
+        <v>-0.009532079614765506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0357055266816932</v>
+        <v>-0.03701230661563401</v>
       </c>
       <c r="C9">
-        <v>-0.04566058881699952</v>
+        <v>0.05250836223096456</v>
       </c>
       <c r="D9">
-        <v>0.0163469547498137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04252877039803421</v>
+      </c>
+      <c r="E9">
+        <v>-0.05647714945061501</v>
+      </c>
+      <c r="F9">
+        <v>0.08440594200523158</v>
+      </c>
+      <c r="G9">
+        <v>-0.02537455677907423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07287285411321909</v>
+        <v>-0.09931029958479719</v>
       </c>
       <c r="C10">
-        <v>0.1952612293523537</v>
+        <v>-0.1971712622172316</v>
       </c>
       <c r="D10">
-        <v>-0.007944954748321296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005519454088822896</v>
+      </c>
+      <c r="E10">
+        <v>-0.04334384601342708</v>
+      </c>
+      <c r="F10">
+        <v>0.04045721765350466</v>
+      </c>
+      <c r="G10">
+        <v>-0.009088241808359541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0416332115020845</v>
+        <v>-0.03663023499578643</v>
       </c>
       <c r="C11">
-        <v>-0.05455167498324255</v>
+        <v>0.05139782378453456</v>
       </c>
       <c r="D11">
-        <v>0.01443942484180177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03342170213251713</v>
+      </c>
+      <c r="E11">
+        <v>-0.01586842538187893</v>
+      </c>
+      <c r="F11">
+        <v>0.06635504514330361</v>
+      </c>
+      <c r="G11">
+        <v>-0.01637444268234277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04127005422802545</v>
+        <v>-0.03734119215241596</v>
       </c>
       <c r="C12">
-        <v>-0.04862870823999027</v>
+        <v>0.04714870536192505</v>
       </c>
       <c r="D12">
-        <v>0.002923517372553389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02533264318225665</v>
+      </c>
+      <c r="E12">
+        <v>-0.02347001706186022</v>
+      </c>
+      <c r="F12">
+        <v>0.06648527874019242</v>
+      </c>
+      <c r="G12">
+        <v>-0.0128106802084966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01422937644262848</v>
+        <v>-0.01246500411460346</v>
       </c>
       <c r="C13">
-        <v>-0.05530818433921306</v>
+        <v>0.04689936067622863</v>
       </c>
       <c r="D13">
-        <v>0.01978603417425699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05718928249752406</v>
+      </c>
+      <c r="E13">
+        <v>-0.08236644515118061</v>
+      </c>
+      <c r="F13">
+        <v>0.09692496238296928</v>
+      </c>
+      <c r="G13">
+        <v>-0.02324573726683179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007384293162568132</v>
+        <v>-0.00471546398047429</v>
       </c>
       <c r="C14">
-        <v>-0.03809598310624938</v>
+        <v>0.03330515529941854</v>
       </c>
       <c r="D14">
-        <v>-0.01386367535947493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02533359664949334</v>
+      </c>
+      <c r="E14">
+        <v>-0.03607667985919596</v>
+      </c>
+      <c r="F14">
+        <v>0.09540906013508463</v>
+      </c>
+      <c r="G14">
+        <v>0.003733631014595055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0003083376770078223</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004805469914308609</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005773282467155734</v>
+      </c>
+      <c r="E15">
+        <v>-0.002017321510105817</v>
+      </c>
+      <c r="F15">
+        <v>0.004211223052850066</v>
+      </c>
+      <c r="G15">
+        <v>0.0006365951378902807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03752260996189024</v>
+        <v>-0.03416297265995716</v>
       </c>
       <c r="C16">
-        <v>-0.04702042077517883</v>
+        <v>0.04535285350101831</v>
       </c>
       <c r="D16">
-        <v>0.009097591104319734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02716054660334628</v>
+      </c>
+      <c r="E16">
+        <v>-0.03042178511507827</v>
+      </c>
+      <c r="F16">
+        <v>0.06827285309340679</v>
+      </c>
+      <c r="G16">
+        <v>-0.002618866208600694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02391838060704646</v>
+        <v>-0.01664676789707838</v>
       </c>
       <c r="C19">
-        <v>-0.06505371647244461</v>
+        <v>0.05048070066404183</v>
       </c>
       <c r="D19">
-        <v>0.07960715834162356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09070264850668726</v>
+      </c>
+      <c r="E19">
+        <v>-0.09955458111573809</v>
+      </c>
+      <c r="F19">
+        <v>0.07399924035826805</v>
+      </c>
+      <c r="G19">
+        <v>0.02261830409562173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01741574717062122</v>
+        <v>-0.01389793603441217</v>
       </c>
       <c r="C20">
-        <v>-0.04866047519904581</v>
+        <v>0.04110470028870154</v>
       </c>
       <c r="D20">
-        <v>0.01587111894972202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03757832839299374</v>
+      </c>
+      <c r="E20">
+        <v>-0.06705700539831679</v>
+      </c>
+      <c r="F20">
+        <v>0.07796134537511747</v>
+      </c>
+      <c r="G20">
+        <v>-0.006709651790133179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01155875108738307</v>
+        <v>-0.009453796427045849</v>
       </c>
       <c r="C21">
-        <v>-0.05142305071787384</v>
+        <v>0.04572264336435251</v>
       </c>
       <c r="D21">
-        <v>0.03939585173620102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0670962478642339</v>
+      </c>
+      <c r="E21">
+        <v>-0.09640101389459392</v>
+      </c>
+      <c r="F21">
+        <v>0.1227210489924858</v>
+      </c>
+      <c r="G21">
+        <v>-0.009427820164441986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002278358646557425</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02424322685486559</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03677917430808209</v>
+      </c>
+      <c r="E22">
+        <v>-0.02919534134247743</v>
+      </c>
+      <c r="F22">
+        <v>0.01269736978660553</v>
+      </c>
+      <c r="G22">
+        <v>-0.03910931722744582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002348712651077717</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02438679061819837</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03644129182530351</v>
+      </c>
+      <c r="E23">
+        <v>-0.02947060829309282</v>
+      </c>
+      <c r="F23">
+        <v>0.01249863522773188</v>
+      </c>
+      <c r="G23">
+        <v>-0.03931348295971674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03388478988751292</v>
+        <v>-0.03384903667920416</v>
       </c>
       <c r="C24">
-        <v>-0.05101973190343574</v>
+        <v>0.05350608955111817</v>
       </c>
       <c r="D24">
-        <v>0.007806312444032811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02619407424096949</v>
+      </c>
+      <c r="E24">
+        <v>-0.02742214272279241</v>
+      </c>
+      <c r="F24">
+        <v>0.07625039533482689</v>
+      </c>
+      <c r="G24">
+        <v>-0.01046801381978282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04769797206520256</v>
+        <v>-0.04396862298448332</v>
       </c>
       <c r="C25">
-        <v>-0.06160519527787952</v>
+        <v>0.05718193636524834</v>
       </c>
       <c r="D25">
-        <v>-0.000814311396976506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02450820621032822</v>
+      </c>
+      <c r="E25">
+        <v>-0.02206554288405424</v>
+      </c>
+      <c r="F25">
+        <v>0.07774160882129065</v>
+      </c>
+      <c r="G25">
+        <v>-0.02721434732611297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01612746156314289</v>
+        <v>-0.01402745235432271</v>
       </c>
       <c r="C26">
-        <v>-0.01638635429859375</v>
+        <v>0.01802002273908633</v>
       </c>
       <c r="D26">
-        <v>-0.002676166177228476</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02375249354186696</v>
+      </c>
+      <c r="E26">
+        <v>-0.03929074219512219</v>
+      </c>
+      <c r="F26">
+        <v>0.06664758919519563</v>
+      </c>
+      <c r="G26">
+        <v>0.01227377705682231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08575814795759315</v>
+        <v>-0.1333475015453565</v>
       </c>
       <c r="C28">
-        <v>0.235373971203226</v>
+        <v>-0.2473442448047637</v>
       </c>
       <c r="D28">
-        <v>-0.005031536868356445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01998758772772512</v>
+      </c>
+      <c r="E28">
+        <v>-0.050381478746693</v>
+      </c>
+      <c r="F28">
+        <v>0.05877343282535274</v>
+      </c>
+      <c r="G28">
+        <v>-0.01979016416207648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008410314151029359</v>
+        <v>-0.005625574400652313</v>
       </c>
       <c r="C29">
-        <v>-0.0307862376085197</v>
+        <v>0.02930251392506227</v>
       </c>
       <c r="D29">
-        <v>-0.019078581467246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01872269212092399</v>
+      </c>
+      <c r="E29">
+        <v>-0.03622042441915683</v>
+      </c>
+      <c r="F29">
+        <v>0.0884866319379473</v>
+      </c>
+      <c r="G29">
+        <v>-0.009156697074738152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05008018988436024</v>
+        <v>-0.04237686623892265</v>
       </c>
       <c r="C30">
-        <v>-0.06287368809033758</v>
+        <v>0.06527260498732783</v>
       </c>
       <c r="D30">
-        <v>0.07683809489683664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.108841334430005</v>
+      </c>
+      <c r="E30">
+        <v>-0.06064268651762308</v>
+      </c>
+      <c r="F30">
+        <v>0.08947827463522594</v>
+      </c>
+      <c r="G30">
+        <v>0.0110987404755682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05397944598740145</v>
+        <v>-0.05513188626473454</v>
       </c>
       <c r="C31">
-        <v>-0.03653387174160652</v>
+        <v>0.05561013619797637</v>
       </c>
       <c r="D31">
-        <v>-0.03088641315503555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01318692419028983</v>
+      </c>
+      <c r="E31">
+        <v>-0.06070538752709604</v>
+      </c>
+      <c r="F31">
+        <v>0.07357695654402396</v>
+      </c>
+      <c r="G31">
+        <v>-0.04838134250133047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002175062942479194</v>
+        <v>-0.004397001099189305</v>
       </c>
       <c r="C32">
-        <v>-0.04027688503847011</v>
+        <v>0.0351311663890581</v>
       </c>
       <c r="D32">
-        <v>0.04396048726945077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0506573155063119</v>
+      </c>
+      <c r="E32">
+        <v>-0.03869481897065694</v>
+      </c>
+      <c r="F32">
+        <v>0.0658757459151865</v>
+      </c>
+      <c r="G32">
+        <v>0.01059403210911474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02811904391407128</v>
+        <v>-0.02485763550285611</v>
       </c>
       <c r="C33">
-        <v>-0.0603581498919985</v>
+        <v>0.05483868237046439</v>
       </c>
       <c r="D33">
-        <v>0.04701247773889951</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07854420754270335</v>
+      </c>
+      <c r="E33">
+        <v>-0.07084664320095965</v>
+      </c>
+      <c r="F33">
+        <v>0.1189634422280689</v>
+      </c>
+      <c r="G33">
+        <v>-0.02215647118305043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04568650860677019</v>
+        <v>-0.04129940219185065</v>
       </c>
       <c r="C34">
-        <v>-0.06623589152313956</v>
+        <v>0.06405821652914226</v>
       </c>
       <c r="D34">
-        <v>0.01113423933246875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03373295966650265</v>
+      </c>
+      <c r="E34">
+        <v>-0.001728422562175177</v>
+      </c>
+      <c r="F34">
+        <v>0.07805839233774237</v>
+      </c>
+      <c r="G34">
+        <v>-0.01247264990363628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01309264263715475</v>
+        <v>-0.01303024801286119</v>
       </c>
       <c r="C36">
-        <v>-0.01722471792573917</v>
+        <v>0.01316289024504513</v>
       </c>
       <c r="D36">
-        <v>-0.002502989652837073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0262124196296769</v>
+      </c>
+      <c r="E36">
+        <v>-0.04586466561902883</v>
+      </c>
+      <c r="F36">
+        <v>0.0750092895170112</v>
+      </c>
+      <c r="G36">
+        <v>-0.01045700647752784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03095000162134218</v>
+        <v>-0.02445390188799685</v>
       </c>
       <c r="C38">
-        <v>-0.02915149703670416</v>
+        <v>0.02447850618327855</v>
       </c>
       <c r="D38">
-        <v>-0.006589816272494275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02690954221265673</v>
+      </c>
+      <c r="E38">
+        <v>-0.04540096972228495</v>
+      </c>
+      <c r="F38">
+        <v>0.06342827006872664</v>
+      </c>
+      <c r="G38">
+        <v>-0.004626584645149012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04612958044058332</v>
+        <v>-0.03982285799656343</v>
       </c>
       <c r="C39">
-        <v>-0.07130055373389742</v>
+        <v>0.06864718093683396</v>
       </c>
       <c r="D39">
-        <v>0.02159311436089755</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05341885494049826</v>
+      </c>
+      <c r="E39">
+        <v>-0.03224764773636592</v>
+      </c>
+      <c r="F39">
+        <v>0.08666613710402886</v>
+      </c>
+      <c r="G39">
+        <v>0.012478195000961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01289275749248836</v>
+        <v>-0.01604323708816981</v>
       </c>
       <c r="C40">
-        <v>-0.05419004093700579</v>
+        <v>0.04020629068340145</v>
       </c>
       <c r="D40">
-        <v>0.0249560171044637</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03851523388670149</v>
+      </c>
+      <c r="E40">
+        <v>-0.08181588360204806</v>
+      </c>
+      <c r="F40">
+        <v>0.06930049912468882</v>
+      </c>
+      <c r="G40">
+        <v>-0.04676764779604178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01822553135643851</v>
+        <v>-0.01780062561259444</v>
       </c>
       <c r="C41">
-        <v>-0.005074284918218444</v>
+        <v>0.007079515758611407</v>
       </c>
       <c r="D41">
-        <v>-0.002765447001132644</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01388516531541181</v>
+      </c>
+      <c r="E41">
+        <v>-0.04909000867620151</v>
+      </c>
+      <c r="F41">
+        <v>0.06466232160587425</v>
+      </c>
+      <c r="G41">
+        <v>-0.003534375509528259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03681765658147446</v>
+        <v>-0.02861831793624828</v>
       </c>
       <c r="C43">
-        <v>-0.02222425615606025</v>
+        <v>0.02182117050911929</v>
       </c>
       <c r="D43">
-        <v>0.01864501216123397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03962191383794078</v>
+      </c>
+      <c r="E43">
+        <v>-0.05995595367221088</v>
+      </c>
+      <c r="F43">
+        <v>0.07561961796719997</v>
+      </c>
+      <c r="G43">
+        <v>-0.02364593645520451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01529272009755349</v>
+        <v>-0.01438912709784634</v>
       </c>
       <c r="C44">
-        <v>-0.06400972577012114</v>
+        <v>0.0514712482739887</v>
       </c>
       <c r="D44">
-        <v>0.01678367090472561</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04083232110499925</v>
+      </c>
+      <c r="E44">
+        <v>-0.07711669897246201</v>
+      </c>
+      <c r="F44">
+        <v>0.07648615903777893</v>
+      </c>
+      <c r="G44">
+        <v>0.005294669360382801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004860192607961117</v>
+        <v>-0.007647224947642711</v>
       </c>
       <c r="C46">
-        <v>-0.02290443165442099</v>
+        <v>0.0261920120216421</v>
       </c>
       <c r="D46">
-        <v>-0.02115418617830403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009832000551182765</v>
+      </c>
+      <c r="E46">
+        <v>-0.0452483016753808</v>
+      </c>
+      <c r="F46">
+        <v>0.1006862790153538</v>
+      </c>
+      <c r="G46">
+        <v>-0.002150459173441594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08353085881623618</v>
+        <v>-0.08730605273444614</v>
       </c>
       <c r="C47">
-        <v>-0.06550287190208094</v>
+        <v>0.079145333261964</v>
       </c>
       <c r="D47">
-        <v>-0.02781042964555013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01878721163782891</v>
+      </c>
+      <c r="E47">
+        <v>-0.0629531163148908</v>
+      </c>
+      <c r="F47">
+        <v>0.07539603160765221</v>
+      </c>
+      <c r="G47">
+        <v>-0.05135850551176354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0187130629804663</v>
+        <v>-0.01570276792063392</v>
       </c>
       <c r="C48">
-        <v>-0.01361093427036066</v>
+        <v>0.01705872907315239</v>
       </c>
       <c r="D48">
-        <v>-0.01582970163170938</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01491976642605603</v>
+      </c>
+      <c r="E48">
+        <v>-0.05702752999845731</v>
+      </c>
+      <c r="F48">
+        <v>0.08946533583162233</v>
+      </c>
+      <c r="G48">
+        <v>-0.009802199078357686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0811751150848959</v>
+        <v>-0.07097153354444864</v>
       </c>
       <c r="C50">
-        <v>-0.07134377246060486</v>
+        <v>0.07148491266261703</v>
       </c>
       <c r="D50">
-        <v>-0.03053366500363983</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005761555974057556</v>
+      </c>
+      <c r="E50">
+        <v>-0.06602754673024133</v>
+      </c>
+      <c r="F50">
+        <v>0.06011716475055778</v>
+      </c>
+      <c r="G50">
+        <v>-0.07062163597489095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01507445500053617</v>
+        <v>-0.01059244519554898</v>
       </c>
       <c r="C51">
-        <v>-0.05037196638094675</v>
+        <v>0.03429926415058937</v>
       </c>
       <c r="D51">
-        <v>0.02541319505865033</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04908265338271067</v>
+      </c>
+      <c r="E51">
+        <v>-0.03637219102863022</v>
+      </c>
+      <c r="F51">
+        <v>0.07831548541494882</v>
+      </c>
+      <c r="G51">
+        <v>0.01852101006457301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08236923679836738</v>
+        <v>-0.09364469855187663</v>
       </c>
       <c r="C53">
-        <v>-0.07618689178992283</v>
+        <v>0.0866768065830911</v>
       </c>
       <c r="D53">
-        <v>-0.04013574215353993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04283022379709078</v>
+      </c>
+      <c r="E53">
+        <v>-0.05932781483620748</v>
+      </c>
+      <c r="F53">
+        <v>0.08314975863527901</v>
+      </c>
+      <c r="G53">
+        <v>-0.06259189725167179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03017086351914087</v>
+        <v>-0.02780239365290468</v>
       </c>
       <c r="C54">
-        <v>-0.02576883680335511</v>
+        <v>0.02663103914625923</v>
       </c>
       <c r="D54">
-        <v>-0.0007487869701817859</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02872731536836134</v>
+      </c>
+      <c r="E54">
+        <v>-0.04591779202355968</v>
+      </c>
+      <c r="F54">
+        <v>0.09982138436905935</v>
+      </c>
+      <c r="G54">
+        <v>-0.01059925197580769</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0757956794473968</v>
+        <v>-0.08508704836743547</v>
       </c>
       <c r="C55">
-        <v>-0.05804617043610143</v>
+        <v>0.06961602290331885</v>
       </c>
       <c r="D55">
-        <v>-0.04774313402446504</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04900044154552745</v>
+      </c>
+      <c r="E55">
+        <v>-0.04681616179153669</v>
+      </c>
+      <c r="F55">
+        <v>0.05834062764644502</v>
+      </c>
+      <c r="G55">
+        <v>-0.05095631501261461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1454936245447251</v>
+        <v>-0.1470933356973941</v>
       </c>
       <c r="C56">
-        <v>-0.09241081051208393</v>
+        <v>0.1041908243667528</v>
       </c>
       <c r="D56">
-        <v>-0.04500787069416594</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05199774835913185</v>
+      </c>
+      <c r="E56">
+        <v>-0.04917401141464485</v>
+      </c>
+      <c r="F56">
+        <v>0.04185568332387084</v>
+      </c>
+      <c r="G56">
+        <v>-0.05797151714599203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.00114183949671805</v>
+        <v>-0.0005341265487512972</v>
       </c>
       <c r="C57">
-        <v>-8.182204358212981e-05</v>
+        <v>0.0001744643358667222</v>
       </c>
       <c r="D57">
-        <v>0.01681525070003865</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01242649348085064</v>
+      </c>
+      <c r="E57">
+        <v>-0.009164352129735686</v>
+      </c>
+      <c r="F57">
+        <v>0.006936915341140807</v>
+      </c>
+      <c r="G57">
+        <v>-0.002824387171744971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05951805307542179</v>
+        <v>-0.02889316758139993</v>
       </c>
       <c r="C58">
-        <v>-0.02760006855630058</v>
+        <v>0.03699617664381276</v>
       </c>
       <c r="D58">
-        <v>0.723020513732165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4128774415261706</v>
+      </c>
+      <c r="E58">
+        <v>-0.66458768489614</v>
+      </c>
+      <c r="F58">
+        <v>-0.539316345781223</v>
+      </c>
+      <c r="G58">
+        <v>0.06993656345804015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1297354785705477</v>
+        <v>-0.1443455278955357</v>
       </c>
       <c r="C59">
-        <v>0.1956046263119296</v>
+        <v>-0.1864904280359781</v>
       </c>
       <c r="D59">
-        <v>0.01985666190726939</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03093864915769449</v>
+      </c>
+      <c r="E59">
+        <v>-0.02781268799694657</v>
+      </c>
+      <c r="F59">
+        <v>0.02070238354806705</v>
+      </c>
+      <c r="G59">
+        <v>0.02855326306213192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3115330049824683</v>
+        <v>-0.283272407473621</v>
       </c>
       <c r="C60">
-        <v>-0.08224660435415886</v>
+        <v>0.09772025037804886</v>
       </c>
       <c r="D60">
-        <v>0.1178941266993286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2198703164372128</v>
+      </c>
+      <c r="E60">
+        <v>0.2656712574734695</v>
+      </c>
+      <c r="F60">
+        <v>-0.09287774008113853</v>
+      </c>
+      <c r="G60">
+        <v>-0.04739964361314203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04268965776110981</v>
+        <v>-0.04121614125932969</v>
       </c>
       <c r="C61">
-        <v>-0.06533215646776216</v>
+        <v>0.0627542558835356</v>
       </c>
       <c r="D61">
-        <v>0.01688217005781751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04480088798419804</v>
+      </c>
+      <c r="E61">
+        <v>-0.03643130677671704</v>
+      </c>
+      <c r="F61">
+        <v>0.07758604073096755</v>
+      </c>
+      <c r="G61">
+        <v>-0.01352265894804519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0160238685916462</v>
+        <v>-0.01506995464621918</v>
       </c>
       <c r="C63">
-        <v>-0.03599350264488112</v>
+        <v>0.03266243463471601</v>
       </c>
       <c r="D63">
-        <v>-0.00715955865394337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02121122225842087</v>
+      </c>
+      <c r="E63">
+        <v>-0.04904105380565206</v>
+      </c>
+      <c r="F63">
+        <v>0.07030654618369196</v>
+      </c>
+      <c r="G63">
+        <v>-0.02876088317960611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04778100883769434</v>
+        <v>-0.05568109393566128</v>
       </c>
       <c r="C64">
-        <v>-0.04269011319372502</v>
+        <v>0.05468450050035834</v>
       </c>
       <c r="D64">
-        <v>0.002029085967431078</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.004902067250792543</v>
+      </c>
+      <c r="E64">
+        <v>-0.02954401114007467</v>
+      </c>
+      <c r="F64">
+        <v>0.08594717653419351</v>
+      </c>
+      <c r="G64">
+        <v>-0.01091991673308883</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08838260937328297</v>
+        <v>-0.06986531838818139</v>
       </c>
       <c r="C65">
-        <v>-0.03150011091986432</v>
+        <v>0.03318968707918989</v>
       </c>
       <c r="D65">
-        <v>0.05250473450135271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08693796850133874</v>
+      </c>
+      <c r="E65">
+        <v>-0.03747057402567097</v>
+      </c>
+      <c r="F65">
+        <v>0.008926471351318566</v>
+      </c>
+      <c r="G65">
+        <v>-0.005389925261207114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06453422269764174</v>
+        <v>-0.05272242952065512</v>
       </c>
       <c r="C66">
-        <v>-0.1019696963679978</v>
+        <v>0.09068284394119072</v>
       </c>
       <c r="D66">
-        <v>0.04451407227428536</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08081043518781232</v>
+      </c>
+      <c r="E66">
+        <v>-0.03861694220806422</v>
+      </c>
+      <c r="F66">
+        <v>0.08818341623498348</v>
+      </c>
+      <c r="G66">
+        <v>-0.005513818659392342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05343782300382782</v>
+        <v>-0.04643986767029107</v>
       </c>
       <c r="C67">
-        <v>-0.03305069676027664</v>
+        <v>0.03086052641902613</v>
       </c>
       <c r="D67">
-        <v>-0.009366250696735804</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01396386053425127</v>
+      </c>
+      <c r="E67">
+        <v>-0.02552330947127014</v>
+      </c>
+      <c r="F67">
+        <v>0.05218782679041717</v>
+      </c>
+      <c r="G67">
+        <v>-0.01106205459336876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1157043789447772</v>
+        <v>-0.1494211683440196</v>
       </c>
       <c r="C68">
-        <v>0.2843492924981711</v>
+        <v>-0.2513351767300468</v>
       </c>
       <c r="D68">
-        <v>-0.009770633421810051</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01916794301895141</v>
+      </c>
+      <c r="E68">
+        <v>-0.04333757078077655</v>
+      </c>
+      <c r="F68">
+        <v>0.01351356939252675</v>
+      </c>
+      <c r="G68">
+        <v>-0.01118416099260701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09093078958769875</v>
+        <v>-0.08717512265171322</v>
       </c>
       <c r="C69">
-        <v>-0.06398707625738335</v>
+        <v>0.08571924743622768</v>
       </c>
       <c r="D69">
-        <v>-0.03996031443426818</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01044014300939771</v>
+      </c>
+      <c r="E69">
+        <v>-0.04658658067012533</v>
+      </c>
+      <c r="F69">
+        <v>0.09264077139208031</v>
+      </c>
+      <c r="G69">
+        <v>-0.02929903397601806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1100388296765431</v>
+        <v>-0.1424030341948144</v>
       </c>
       <c r="C71">
-        <v>0.2466944873041094</v>
+        <v>-0.2351996113221883</v>
       </c>
       <c r="D71">
-        <v>0.0259223339161651</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01357703330214815</v>
+      </c>
+      <c r="E71">
+        <v>-0.06242619316243443</v>
+      </c>
+      <c r="F71">
+        <v>0.05496100343127888</v>
+      </c>
+      <c r="G71">
+        <v>-0.03711811206244514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09030183767730057</v>
+        <v>-0.09805034982095939</v>
       </c>
       <c r="C72">
-        <v>-0.05149505266865557</v>
+        <v>0.05695434813872881</v>
       </c>
       <c r="D72">
-        <v>0.003787145576428891</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02747695426575939</v>
+      </c>
+      <c r="E72">
+        <v>-0.01477022964379733</v>
+      </c>
+      <c r="F72">
+        <v>0.07197436649193652</v>
+      </c>
+      <c r="G72">
+        <v>-0.03527044274525178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.419161282132582</v>
+        <v>-0.3480773462420463</v>
       </c>
       <c r="C73">
-        <v>-0.05129554360595194</v>
+        <v>0.07897916708127767</v>
       </c>
       <c r="D73">
-        <v>0.3239338076978004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4671769166440412</v>
+      </c>
+      <c r="E73">
+        <v>0.4743313769174873</v>
+      </c>
+      <c r="F73">
+        <v>-0.2498838805831019</v>
+      </c>
+      <c r="G73">
+        <v>-0.1043990357106294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1110253949573549</v>
+        <v>-0.1112671830585918</v>
       </c>
       <c r="C74">
-        <v>-0.09895229785927973</v>
+        <v>0.09829992742244181</v>
       </c>
       <c r="D74">
-        <v>-0.02319208083333705</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03195807871479415</v>
+      </c>
+      <c r="E74">
+        <v>-0.06436944814395813</v>
+      </c>
+      <c r="F74">
+        <v>0.04656714808397849</v>
+      </c>
+      <c r="G74">
+        <v>-0.07340475521332632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2523719594302019</v>
+        <v>-0.2573418659260064</v>
       </c>
       <c r="C75">
-        <v>-0.1006086653906681</v>
+        <v>0.130409646718589</v>
       </c>
       <c r="D75">
-        <v>-0.08409527189870894</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1306533242779259</v>
+      </c>
+      <c r="E75">
+        <v>-0.06867623114087373</v>
+      </c>
+      <c r="F75">
+        <v>0.009078621861499547</v>
+      </c>
+      <c r="G75">
+        <v>-0.07117524279785968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1142694353827982</v>
+        <v>-0.1280510873139792</v>
       </c>
       <c r="C76">
-        <v>-0.08942725706848073</v>
+        <v>0.09877518028258279</v>
       </c>
       <c r="D76">
-        <v>-0.04360489799100897</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06081524070433195</v>
+      </c>
+      <c r="E76">
+        <v>-0.07706229673772302</v>
+      </c>
+      <c r="F76">
+        <v>0.06553645480076677</v>
+      </c>
+      <c r="G76">
+        <v>-0.05665068311598862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07923369368216845</v>
+        <v>-0.06321885632014131</v>
       </c>
       <c r="C77">
-        <v>-0.06046493602059951</v>
+        <v>0.07386083003964929</v>
       </c>
       <c r="D77">
-        <v>0.057135897923538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06109634382343565</v>
+      </c>
+      <c r="E77">
+        <v>-0.09175215339478097</v>
+      </c>
+      <c r="F77">
+        <v>0.1087138753309717</v>
+      </c>
+      <c r="G77">
+        <v>0.1334815205609201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04939511481339574</v>
+        <v>-0.0433820963797127</v>
       </c>
       <c r="C78">
-        <v>-0.0488198032746356</v>
+        <v>0.06137208680413642</v>
       </c>
       <c r="D78">
-        <v>0.02314126525387268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06712298900455659</v>
+      </c>
+      <c r="E78">
+        <v>-0.04223346735877169</v>
+      </c>
+      <c r="F78">
+        <v>0.09013900204460849</v>
+      </c>
+      <c r="G78">
+        <v>-0.00862716039265588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02592925246608613</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03904027535566668</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06331132538208629</v>
+      </c>
+      <c r="E79">
+        <v>-0.05533960683635139</v>
+      </c>
+      <c r="F79">
+        <v>0.03427428468572639</v>
+      </c>
+      <c r="G79">
+        <v>-0.06542719249005988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04630661048638408</v>
+        <v>-0.03479751736641565</v>
       </c>
       <c r="C80">
-        <v>-0.05448992192234903</v>
+        <v>0.05487472578485553</v>
       </c>
       <c r="D80">
-        <v>0.03035495658758444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04345455114649673</v>
+      </c>
+      <c r="E80">
+        <v>-0.01591919084405561</v>
+      </c>
+      <c r="F80">
+        <v>0.03307061831827244</v>
+      </c>
+      <c r="G80">
+        <v>0.04704966051233637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1408297285748872</v>
+        <v>-0.1406757769487135</v>
       </c>
       <c r="C81">
-        <v>-0.07558806189649667</v>
+        <v>0.09344612332790479</v>
       </c>
       <c r="D81">
-        <v>-0.06677516366953842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1021826701997797</v>
+      </c>
+      <c r="E81">
+        <v>-0.08430055741818905</v>
+      </c>
+      <c r="F81">
+        <v>0.008360649256875149</v>
+      </c>
+      <c r="G81">
+        <v>-0.05048687269364593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1601814014915932</v>
+        <v>-0.2025799607012783</v>
       </c>
       <c r="C82">
-        <v>-0.06493454975312576</v>
+        <v>0.136852444440649</v>
       </c>
       <c r="D82">
-        <v>-0.1611972011645366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2410528601819384</v>
+      </c>
+      <c r="E82">
+        <v>-0.0006282466477699858</v>
+      </c>
+      <c r="F82">
+        <v>0.09515330007540736</v>
+      </c>
+      <c r="G82">
+        <v>-0.04587714546853961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04006640023009555</v>
+        <v>-0.02844714990632156</v>
       </c>
       <c r="C83">
-        <v>-0.02578381829242767</v>
+        <v>0.04196454192100241</v>
       </c>
       <c r="D83">
-        <v>0.03325186206804481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0343004408996502</v>
+      </c>
+      <c r="E83">
+        <v>-0.02025330263392596</v>
+      </c>
+      <c r="F83">
+        <v>0.04220340518300768</v>
+      </c>
+      <c r="G83">
+        <v>0.02006423878637207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-2.748254287965366e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0002028594962442354</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>1.462849426459852e-06</v>
+      </c>
+      <c r="E84">
+        <v>3.246239623732169e-05</v>
+      </c>
+      <c r="F84">
+        <v>0.0002382811053628351</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002092831490578858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2194846394447797</v>
+        <v>-0.2032487569004498</v>
       </c>
       <c r="C85">
-        <v>-0.0998687332287268</v>
+        <v>0.1183971373238118</v>
       </c>
       <c r="D85">
-        <v>-0.1131312001361123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09931826264499331</v>
+      </c>
+      <c r="E85">
+        <v>0.001503322758905184</v>
+      </c>
+      <c r="F85">
+        <v>-0.01644010196705592</v>
+      </c>
+      <c r="G85">
+        <v>-0.1213777023474909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009027895806612099</v>
+        <v>-0.01116587455237391</v>
       </c>
       <c r="C86">
-        <v>-0.04083407854263982</v>
+        <v>0.03135707321855258</v>
       </c>
       <c r="D86">
-        <v>0.04517860668234057</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06519127698056945</v>
+      </c>
+      <c r="E86">
+        <v>-0.0635215352507294</v>
+      </c>
+      <c r="F86">
+        <v>0.1283220782757811</v>
+      </c>
+      <c r="G86">
+        <v>0.0111814840224309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02466231640123893</v>
+        <v>-0.02219391930666033</v>
       </c>
       <c r="C87">
-        <v>-0.01961370868052592</v>
+        <v>0.02190140130847202</v>
       </c>
       <c r="D87">
-        <v>0.09733461538358956</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08945004381949097</v>
+      </c>
+      <c r="E87">
+        <v>-0.1115677096889679</v>
+      </c>
+      <c r="F87">
+        <v>0.06852719216232248</v>
+      </c>
+      <c r="G87">
+        <v>0.03703423259042565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1071629067125041</v>
+        <v>-0.09324362559081099</v>
       </c>
       <c r="C88">
-        <v>-0.06337231106374673</v>
+        <v>0.06132884848894318</v>
       </c>
       <c r="D88">
-        <v>-0.03282925337482929</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.00517475958903188</v>
+      </c>
+      <c r="E88">
+        <v>-0.04211146802697099</v>
+      </c>
+      <c r="F88">
+        <v>0.07399574244646497</v>
+      </c>
+      <c r="G88">
+        <v>0.02606207628832068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1762122558020775</v>
+        <v>-0.2195312851761347</v>
       </c>
       <c r="C89">
-        <v>0.3762445707915455</v>
+        <v>-0.3787691263559501</v>
       </c>
       <c r="D89">
-        <v>-0.0207604177079063</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005480768172135724</v>
+      </c>
+      <c r="E89">
+        <v>-0.06346699393272802</v>
+      </c>
+      <c r="F89">
+        <v>0.07510717457212625</v>
+      </c>
+      <c r="G89">
+        <v>0.06260284080136168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1718899199990548</v>
+        <v>-0.1994501947417553</v>
       </c>
       <c r="C90">
-        <v>0.3444379129898453</v>
+        <v>-0.3149313061398909</v>
       </c>
       <c r="D90">
-        <v>-0.02167717340024577</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01306244989186498</v>
+      </c>
+      <c r="E90">
+        <v>-0.07262079276202416</v>
+      </c>
+      <c r="F90">
+        <v>0.04227894131184218</v>
+      </c>
+      <c r="G90">
+        <v>0.01168459503945295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1899086991188331</v>
+        <v>-0.1859365147731296</v>
       </c>
       <c r="C91">
-        <v>-0.1230920983866216</v>
+        <v>0.1399035125072035</v>
       </c>
       <c r="D91">
-        <v>-0.08463353062576452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1104332644714202</v>
+      </c>
+      <c r="E91">
+        <v>-0.06034564099063948</v>
+      </c>
+      <c r="F91">
+        <v>0.03242802252344584</v>
+      </c>
+      <c r="G91">
+        <v>-0.05673188350766141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1620451337106457</v>
+        <v>-0.181193755128196</v>
       </c>
       <c r="C92">
-        <v>0.2922119319112924</v>
+        <v>-0.2858552283151825</v>
       </c>
       <c r="D92">
-        <v>-0.006354102323786716</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005746451484777189</v>
+      </c>
+      <c r="E92">
+        <v>-0.06835841636835277</v>
+      </c>
+      <c r="F92">
+        <v>0.08339509413641236</v>
+      </c>
+      <c r="G92">
+        <v>0.01036581048319476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1943888610674211</v>
+        <v>-0.2236188673237091</v>
       </c>
       <c r="C93">
-        <v>0.3465638326589049</v>
+        <v>-0.3193494999562221</v>
       </c>
       <c r="D93">
-        <v>-0.01692399801433883</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.00397462742131309</v>
+      </c>
+      <c r="E93">
+        <v>-0.04989540383793473</v>
+      </c>
+      <c r="F93">
+        <v>0.04136577859973158</v>
+      </c>
+      <c r="G93">
+        <v>-0.02944385229773204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3396533677510375</v>
+        <v>-0.3434971780075911</v>
       </c>
       <c r="C94">
-        <v>-0.1393199178290066</v>
+        <v>0.1790548504796579</v>
       </c>
       <c r="D94">
-        <v>-0.4409867248336503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4953696083703281</v>
+      </c>
+      <c r="E94">
+        <v>-0.05051453353936337</v>
+      </c>
+      <c r="F94">
+        <v>-0.4421282822260807</v>
+      </c>
+      <c r="G94">
+        <v>0.3260734428039639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1139510530556627</v>
+        <v>-0.08607583436920123</v>
       </c>
       <c r="C95">
-        <v>-0.07880040303816553</v>
+        <v>0.06775839631859215</v>
       </c>
       <c r="D95">
-        <v>0.1162731493612624</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1699778775057494</v>
+      </c>
+      <c r="E95">
+        <v>0.1055326243951118</v>
+      </c>
+      <c r="F95">
+        <v>0.222644763373506</v>
+      </c>
+      <c r="G95">
+        <v>0.8686858709216568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1978336258173047</v>
+        <v>-0.1881185929877154</v>
       </c>
       <c r="C98">
-        <v>-0.02022561415464751</v>
+        <v>0.04325788092858605</v>
       </c>
       <c r="D98">
-        <v>0.125833757849522</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1870290868424598</v>
+      </c>
+      <c r="E98">
+        <v>0.1471140219938336</v>
+      </c>
+      <c r="F98">
+        <v>-0.03562577604336962</v>
+      </c>
+      <c r="G98">
+        <v>-0.1003546961047624</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008343555146625012</v>
+        <v>-0.00567712085956586</v>
       </c>
       <c r="C101">
-        <v>-0.0307970396841639</v>
+        <v>0.02904316894589479</v>
       </c>
       <c r="D101">
-        <v>-0.01964264325951135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01819467147400087</v>
+      </c>
+      <c r="E101">
+        <v>-0.03687903391617986</v>
+      </c>
+      <c r="F101">
+        <v>0.08820291361402148</v>
+      </c>
+      <c r="G101">
+        <v>-0.00808139065160381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1219725902984179</v>
+        <v>-0.1240902601451831</v>
       </c>
       <c r="C102">
-        <v>-0.07225840764637838</v>
+        <v>0.09804829507531279</v>
       </c>
       <c r="D102">
-        <v>-0.0275961246112155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04804216740920619</v>
+      </c>
+      <c r="E102">
+        <v>0.005602818099716188</v>
+      </c>
+      <c r="F102">
+        <v>0.04272139641370971</v>
+      </c>
+      <c r="G102">
+        <v>-0.0178667641867539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
